--- a/biology/Zoologie/Cheroscorpaena_tridactyla/Cheroscorpaena_tridactyla.xlsx
+++ b/biology/Zoologie/Cheroscorpaena_tridactyla/Cheroscorpaena_tridactyla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cheroscorpaena
 Cheroscorpaena tridactyla, unique représentant du genre Cheroscorpaena, est une espèce de poissons marins de la famille des Apistidae.
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce poisson est une espèce des récifs coralliens qui se rencontre dans le golfe de Papouasie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce poisson est une espèce des récifs coralliens qui se rencontre dans le golfe de Papouasie.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa description de 1964, Gerlof Mees indique que les sept spécimens en sa possession mesuraient entre 103 et 132 mm de longueur totale et de 78 à 105 mm de longueur standard (soit queue non comprise)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa description de 1964, Gerlof Mees indique que les sept spécimens en sa possession mesuraient entre 103 et 132 mm de longueur totale et de 78 à 105 mm de longueur standard (soit queue non comprise).
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Cheroscorpaena et l'espèce Cheroscorpaena tridactyla ont été décrits en 1964 par l'ichtyologiste néerlandais Gerlof Mees (1926-2013)[3],[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Cheroscorpaena et l'espèce Cheroscorpaena tridactyla ont été décrits en 1964 par l'ichtyologiste néerlandais Gerlof Mees (1926-2013),.
 </t>
         </is>
       </c>
@@ -605,11 +623,13 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom générique, Cheroscorpaena, est la combinaison du grec ancien χείρός, kheírós), « main », ce qui fait allusion à ses nageoires pectorales constituées de neuf rayons connectés par une membrane, suivis verticalement par trois rayons libres de longueur égale, et de scorpaena, « scorpion » à l'origine en référence à la famille des 
-Scorpaenidae où cette espèce a été classée initialement[4]. Désormais cette espèce est classée dans les Apistidae, famille qui fait partie également du sous-ordre des Scorpaenoidei[3].
-Son épithète spécifique, tridactyla, du latin tri, « trois », et dactyla, « doigt », fait référence aux trois rayons libres de ses nageoires pectorales[4].
+Scorpaenidae où cette espèce a été classée initialement. Désormais cette espèce est classée dans les Apistidae, famille qui fait partie également du sous-ordre des Scorpaenoidei.
+Son épithète spécifique, tridactyla, du latin tri, « trois », et dactyla, « doigt », fait référence aux trois rayons libres de ses nageoires pectorales.
 </t>
         </is>
       </c>
@@ -638,7 +658,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) G. F. Mees, « A new fish of the family Scorpaenidae from New Guinea », Zoologische Mededelingen, NBC, vol. 40, no 1,‎ 1964, p. 1-4 (ISSN 0024-0672 et 1876-2174, OCLC 212304577, lire en ligne)</t>
         </is>
